--- a/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/Templates/User.xlsx
+++ b/src/MaterialCodeSelectionPlatform/MaterialCodeSelectionPlatform.Web/Templates/User.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>登录名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,22 @@
   </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>座机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -402,7 +418,7 @@
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +436,18 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
